--- a/biology/Zoologie/Gracillariinae/Gracillariinae.xlsx
+++ b/biology/Zoologie/Gracillariinae/Gracillariinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gracillariinae sont une sous-famille d'insectes de l'ordre des lépidoptères (papillons) de la famille des Gracillariidae.
-Les Gracillariinae adultes sont des papillons minces dotés de longues antennes qu'ils agitent souvent au repos. Ces papillons ont l’extrémité antérieure du corps surélevée et les pattes antérieures et moyennes (les tibias souvent touffus) maintenues bien en évidence de chaque côté du corps, contrairement aux Tischeriidae adultes[1].
+Les Gracillariinae adultes sont des papillons minces dotés de longues antennes qu'ils agitent souvent au repos. Ces papillons ont l’extrémité antérieure du corps surélevée et les pattes antérieures et moyennes (les tibias souvent touffus) maintenues bien en évidence de chaque côté du corps, contrairement aux Tischeriidae adultes.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acrocercops Wallengren, 1881
